--- a/GreateProblemsCollections.xlsx
+++ b/GreateProblemsCollections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">Sl No.</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">Context</t>
   </si>
   <si>
+    <t xml:space="preserve">Observation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Related To</t>
   </si>
   <si>
     <t xml:space="preserve">Checked ?</t>
   </si>
   <si>
-    <t xml:space="preserve">https://leetcode.com/problems/sudoku-solver/description/</t>
+    <t xml:space="preserve">https://leetcode.com/problems/sudoku-solver/</t>
   </si>
   <si>
     <t xml:space="preserve">Agar solve kar liya khud se toh backtracking is ready</t>
@@ -47,6 +50,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/problems/tower-of-hanoi-1587115621/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to check all the dirsctions and make visited directions -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/unique-paths-iii/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/dsa/print-all-possible-decodings-of-a-given-digit-sequence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuch toh crazy ho raha h idhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combination-sum-ii/submissions/1683002403/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frq from 1 to 51 and do – when needed</t>
   </si>
 </sst>
 </file>
@@ -56,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,13 +110,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,6 +177,18 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -195,7 +244,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -325,17 +374,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,36 +404,85 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="8.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="49.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/sudoku-solver/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/n-queens/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GreateProblemsCollections.xlsx
+++ b/GreateProblemsCollections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">Sl No.</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">frq from 1 to 51 and do – when needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/contest/1285/problem/C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCM property use hoga</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,6 +482,14 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GreateProblemsCollections.xlsx
+++ b/GreateProblemsCollections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">Sl No.</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t xml:space="preserve">LCM property use hoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/problemset/problem/1881/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how tpo find subset of a strig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp.found(s) != string::npos (use to checl if s is a subset of temp or not and string::npose means tring not found</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,6 +131,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,6 +209,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -380,10 +398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,6 +508,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GreateProblemsCollections.xlsx
+++ b/GreateProblemsCollections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">Sl No.</t>
   </si>
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t xml:space="preserve">temp.found(s) != string::npos (use to checl if s is a subset of temp or not and string::npose means tring not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/problemset/problem/1904/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinamic Programming lagega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cses.fi/problemset/task/1643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadanes algorithm use hoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/problemset/problem/1899/C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/problemset/problem/1873/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/problemset/problem/1827/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search problem upperbound related</t>
   </si>
 </sst>
 </file>
@@ -95,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -132,11 +159,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,7 +233,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,6 +521,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -503,6 +532,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -511,6 +543,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -521,7 +556,63 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/sudoku-solver/"/>
     <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/n-queens/"/>

--- a/GreateProblemsCollections.xlsx
+++ b/GreateProblemsCollections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t xml:space="preserve">Sl No.</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Binary Search problem upperbound related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codeforces.com/contest/1873/problem/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic Binary Search </t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,7 +605,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -607,6 +613,17 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
